--- a/biology/Médecine/Articulation_fibreuse/Articulation_fibreuse.xlsx
+++ b/biology/Médecine/Articulation_fibreuse/Articulation_fibreuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une articulation fibreuse est du point de vue morphologique un type d'articulation dont les os sont unis par du tissu conjonctif fibreux. Du point de vue fonctionnel, une articulation fibreuse peut être une amphiarthrose ou une synarthrose.
 Les amphiarthroses de type articulation fibreuse sont :
